--- a/PaperNeural/Results/ResultsMar2017-Sammon_MI_4000_LR_0.4.xlsx
+++ b/PaperNeural/Results/ResultsMar2017-Sammon_MI_4000_LR_0.4.xlsx
@@ -7111,10 +7111,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>0.0</v>
@@ -7124,7 +7124,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -7144,7 +7144,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>15.789473684210526</v>
+        <v>16.95906432748538</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -7153,13 +7153,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
         <v>0.875</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -7174,10 +7174,10 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -7191,13 +7191,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -7209,13 +7209,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -7304,16 +7304,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>15.789473684210526</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="K12" s="40" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L12" s="40" t="n">
         <v>0.06666666666666667</v>
@@ -7323,7 +7323,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>20.46783625730994</v>
+        <v>21.637426900584796</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -7335,10 +7335,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -7349,10 +7349,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K13" s="40" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L13" s="40" t="n">
         <v>0.1111111111111111</v>
@@ -7369,13 +7369,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D14" s="40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="E14" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -7386,13 +7386,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K14" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -7465,29 +7465,29 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>100*C18/SUM(C18:E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -7497,7 +7497,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>21.637426900584796</v>
+        <v>16.374269005847953</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7509,10 +7509,10 @@
         <v>0.125</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
@@ -7523,13 +7523,13 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -7543,13 +7543,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -7560,13 +7560,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -7642,10 +7642,10 @@
         <v>0.8</v>
       </c>
       <c r="D24" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="40" t="n">
         <v>0.2</v>
-      </c>
-      <c r="E24" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
@@ -7671,7 +7671,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>30.409356725146196</v>
+        <v>32.16374269005848</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7680,13 +7680,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D25" s="40" t="n">
         <v>0.625</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -7697,13 +7697,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K25" s="40" t="n">
         <v>0.6944444444444444</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -7717,10 +7717,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="D26" s="40" t="n">
-        <v>0.0</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>0.8333333333333334</v>
@@ -7737,10 +7737,10 @@
         <v>0.0</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -7905,20 +7905,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -7938,7 +7938,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>28.07017543859649</v>
+        <v>26.900584795321635</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -7965,13 +7965,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -8006,10 +8006,10 @@
         <v>0.09259259259259259</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -8095,26 +8095,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>10.526315789473683</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="K12" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>17.543859649122805</v>
+        <v>18.71345029239766</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8126,10 +8126,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8140,13 +8140,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K13" s="40" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -8160,13 +8160,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -8177,13 +8177,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -8256,10 +8256,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -8269,26 +8269,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>52.63157894736842</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.37777777777777777</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="L18" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>35.08771929824561</v>
+        <v>30.994152046783626</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8297,10 +8297,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.0</v>
@@ -8314,10 +8314,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="L19" s="40" t="n">
         <v>0.1527777777777778</v>
@@ -8334,13 +8334,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D20" s="40" t="n">
         <v>0.5</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -8351,13 +8351,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -8430,20 +8430,20 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="3" t="e">
         <f>100*C24/SUM(C24:E24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>42.10526315789473</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
@@ -8452,17 +8452,17 @@
         <v>0.7555555555555555</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.17777777777777778</v>
+        <v>0.2</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>26.900584795321635</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8471,13 +8471,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="40" t="n">
         <v>0.25</v>
-      </c>
-      <c r="D25" s="40" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E25" s="40" t="n">
-        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -8488,13 +8488,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.19444444444444445</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -8508,13 +8508,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="40" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D26" s="40" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="E26" s="40" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -8525,13 +8525,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -8696,10 +8696,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>0.0</v>
@@ -8709,27 +8709,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="40" t="n">
-        <v>0.6</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="K6" s="40" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="L6" s="40" t="n">
-        <v>0.17777777777777778</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="M6" s="3" t="e">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>23.391812865497073</v>
+        <v>20.46783625730994</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8738,13 +8738,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -8756,13 +8756,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K7" s="40" t="n">
         <v>0.8194444444444444</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -8776,10 +8776,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" s="40" t="n">
         <v>0.6666666666666666</v>
@@ -8886,26 +8886,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="K12" s="40" t="n">
-        <v>0.17777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>24.561403508771928</v>
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -8914,13 +8914,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="D13" s="40" t="n">
         <v>0.75</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -8931,10 +8931,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K13" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L13" s="40" t="n">
         <v>0.125</v>
@@ -8951,13 +8951,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -8968,13 +8968,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="n">
-        <v>0.14814814814814814</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -9066,10 +9066,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -9079,7 +9079,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>9.941520467836257</v>
+        <v>16.374269005847953</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9088,13 +9088,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D19" s="40" t="n">
         <v>0.75</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
@@ -9108,10 +9108,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -9142,13 +9142,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -9234,26 +9234,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>28.654970760233915</v>
+        <v>25.730994152046783</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9265,10 +9265,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -9279,13 +9279,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -9299,10 +9299,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>0.5</v>
@@ -9319,10 +9319,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.35185185185185186</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -9487,10 +9487,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>0.0</v>
@@ -9500,17 +9500,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>42.10526315789473</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="40" t="n">
-        <v>0.8</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="K6" s="40" t="n">
-        <v>0.15555555555555556</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L6" s="40" t="n">
         <v>0.044444444444444446</v>
@@ -9520,7 +9520,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>17.543859649122805</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9529,13 +9529,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="40" t="n">
         <v>0.75</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -9547,13 +9547,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -9570,10 +9570,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -9588,10 +9588,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -9664,39 +9664,39 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D12" s="40" t="n">
         <v>0.2</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K12" s="40" t="n">
         <v>0.022222222222222223</v>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>8.187134502923977</v>
+        <v>9.941520467836257</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9722,13 +9722,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.013888888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K13" s="40" t="n">
         <v>0.9305555555555556</v>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -9745,10 +9745,10 @@
         <v>0.0</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.0</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -9762,10 +9762,10 @@
         <v>0.037037037037037035</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -9857,10 +9857,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.022222222222222223</v>
@@ -9870,7 +9870,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>21.637426900584796</v>
+        <v>19.883040935672515</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -9879,10 +9879,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.0</v>
@@ -9896,13 +9896,13 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -9919,10 +9919,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.0</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -9936,10 +9936,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.12962962962962962</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -10025,7 +10025,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
@@ -10034,17 +10034,17 @@
         <v>0.9111111111111111</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>19.883040935672515</v>
+        <v>22.807017543859647</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10053,13 +10053,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.75</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -10070,13 +10070,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -10090,10 +10090,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>0.6666666666666666</v>
@@ -10110,10 +10110,10 @@
         <v>0.018518518518518517</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -10274,20 +10274,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
@@ -10307,7 +10307,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>15.204678362573098</v>
+        <v>16.95906432748538</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10319,10 +10319,10 @@
         <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -10334,13 +10334,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -10357,10 +10357,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -10375,10 +10375,10 @@
         <v>0.07407407407407407</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -10451,39 +10451,39 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="40" t="n">
         <v>0.4</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="63" t="n">
-        <v>26.31578947368421</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K12" s="40" t="n">
-        <v>0.15555555555555556</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>28.07017543859649</v>
+        <v>20.46783625730994</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10509,13 +10509,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K13" s="40" t="n">
-        <v>0.75</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -10532,10 +10532,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -10549,10 +10549,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -10625,10 +10625,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -10638,16 +10638,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>10.526315789473683</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.0</v>
@@ -10657,7 +10657,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>17.543859649122805</v>
+        <v>18.128654970760234</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10683,13 +10683,13 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -10703,13 +10703,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D20" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="40" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="E20" s="40" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -10723,10 +10723,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -10799,10 +10799,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>0.2</v>
@@ -10812,26 +10812,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.17777777777777778</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.0</v>
+        <v>0.022222222222222223</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>100*J24/(SUM(J24:L24))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>25.146198830409354</v>
+        <v>29.239766081871345</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -10840,13 +10840,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="D25" s="40" t="n">
         <v>0.625</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -10857,13 +10857,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.19444444444444445</v>
+        <v>0.25</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -10877,10 +10877,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>0.6666666666666666</v>
@@ -10894,13 +10894,13 @@
         <v>3</v>
       </c>
       <c r="J26" s="40" t="n">
-        <v>0.0</v>
+        <v>0.018518518518518517</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
@@ -11068,10 +11068,10 @@
         <v>0.8</v>
       </c>
       <c r="D6" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="40" t="n">
         <v>0.0</v>
-      </c>
-      <c r="E6" s="40" t="n">
-        <v>0.2</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
@@ -11085,10 +11085,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="40" t="n">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="K6" s="40" t="n">
-        <v>0.15555555555555556</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L6" s="40" t="n">
         <v>0.044444444444444446</v>
@@ -11098,7 +11098,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>19.883040935672515</v>
+        <v>17.543859649122805</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11107,13 +11107,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -11128,10 +11128,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -11148,10 +11148,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -11166,10 +11166,10 @@
         <v>0.018518518518518517</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.7962962962962963</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -11245,10 +11245,10 @@
         <v>0.8</v>
       </c>
       <c r="D12" s="40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="40" t="n">
         <v>0.0</v>
-      </c>
-      <c r="E12" s="40" t="n">
-        <v>0.2</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
@@ -11261,13 +11261,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="K12" s="40" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.022222222222222223</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
@@ -11286,10 +11286,10 @@
         <v>0.125</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -11300,13 +11300,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="K13" s="40" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -11323,10 +11323,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -11337,13 +11337,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="n">
-        <v>0.018518518518518517</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.12962962962962962</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -11416,10 +11416,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -11429,26 +11429,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>31.57894736842105</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.24444444444444444</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="L18" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="M18" s="3" t="e">
         <f>100*J18/(SUM(J18:L18))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>23.976608187134502</v>
+        <v>26.900584795321635</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11457,13 +11457,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="D19" s="40" t="n">
         <v>0.625</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>100*D19/SUM(C19:E19)</f>
@@ -11474,13 +11474,13 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -11497,10 +11497,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.0</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -11511,13 +11511,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="40" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="K20" s="40" t="n">
         <v>0.14814814814814814</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -11603,7 +11603,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>15.789473684210526</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
@@ -11622,7 +11622,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>23.391812865497073</v>
+        <v>21.052631578947366</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -11634,10 +11634,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -11651,10 +11651,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -11668,10 +11668,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>0.6666666666666666</v>
@@ -11863,20 +11863,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="40" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="3" t="e">
         <f>100*C6/SUM(C6:E6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="67" t="n">
-        <v>31.57894736842105</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
@@ -11886,17 +11886,17 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="K6" s="40" t="n">
-        <v>0.17777777777777778</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="L6" s="40" t="n">
-        <v>0.044444444444444446</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="M6" s="3" t="e">
         <f>100*J6/(SUM(J6:L6))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="63" t="n">
-        <v>19.883040935672515</v>
+        <v>20.46783625730994</v>
       </c>
       <c r="O6" s="45"/>
     </row>
@@ -11906,13 +11906,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="40" t="n">
         <v>0.75</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>100*D7/SUM(C7:E7)</f>
@@ -11924,13 +11924,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K7" s="40" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>100*K7/(SUM(J7:L7))</f>
@@ -11948,10 +11948,10 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>100*E8/SUM(C8:E8)</f>
@@ -11963,13 +11963,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="40" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.0</v>
       </c>
       <c r="K8" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.7962962962962963</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>100*L8/(SUM(J8:L8))</f>
@@ -12042,13 +12042,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="3" t="e">
         <f>100*C12/SUM(C12:E12)</f>
@@ -12061,20 +12061,20 @@
         <v>1</v>
       </c>
       <c r="J12" s="40" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="K12" s="40" t="n">
         <v>0.08888888888888889</v>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M12" s="3" t="e">
         <f>100*J12/(SUM(J12:L12))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="63" t="n">
-        <v>18.128654970760234</v>
+        <v>14.035087719298245</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -12086,10 +12086,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="3" t="e">
         <f>100*D13/SUM(C13:E13)</f>
@@ -12100,13 +12100,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="40" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="K13" s="40" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M13" s="3" t="e">
         <f>100*K13/(SUM(J13:L13))</f>
@@ -12120,13 +12120,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="40" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D14" s="40" t="n">
         <v>0.0</v>
       </c>
-      <c r="D14" s="40" t="n">
-        <v>0.5</v>
-      </c>
       <c r="E14" s="40" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F14" s="3" t="e">
         <f>100*E14/SUM(C14:E14)</f>
@@ -12140,10 +12140,10 @@
         <v>0.07407407407407407</v>
       </c>
       <c r="K14" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>100*L14/(SUM(J14:L14))</f>
@@ -12216,10 +12216,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.0</v>
@@ -12229,16 +12229,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J18" s="40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K18" s="40" t="n">
-        <v>0.2</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="L18" s="40" t="n">
         <v>0.022222222222222223</v>
@@ -12248,7 +12248,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="63" t="n">
-        <v>23.976608187134502</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -12257,10 +12257,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>0.0</v>
@@ -12274,13 +12274,13 @@
         <v>2</v>
       </c>
       <c r="J19" s="40" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="K19" s="40" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>100*K19/(SUM(J19:L19))</f>
@@ -12297,10 +12297,10 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>100*E20/SUM(C20:E20)</f>
@@ -12314,10 +12314,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="40" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="L20" s="40" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="M20" s="3" t="e">
         <f>100*L20/(SUM(J20:L20))</f>
@@ -12390,10 +12390,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>0.0</v>
@@ -12403,16 +12403,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="63" t="n">
-        <v>21.052631578947366</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="40" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="K24" s="40" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L24" s="40" t="n">
         <v>0.022222222222222223</v>
@@ -12422,7 +12422,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="63" t="n">
-        <v>20.46783625730994</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -12434,10 +12434,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>100*D25/SUM(C25:E25)</f>
@@ -12448,13 +12448,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="40" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K25" s="40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>100*K25/(SUM(J25:L25))</f>
@@ -12471,10 +12471,10 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="40" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E26" s="40" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="E26" s="40" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="F26" s="3" t="e">
         <f>100*E26/SUM(C26:E26)</f>
@@ -12488,10 +12488,10 @@
         <v>0.0</v>
       </c>
       <c r="K26" s="40" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="M26" s="3" t="e">
         <f>100*L26/(SUM(J26:L26))</f>
